--- a/Multiknapsack/results/fixed_recourse/multicut/M20_N50_T0_a75_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M20_N50_T0_a75_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-304.30358535466974</v>
+        <v>-123.47338599291058</v>
       </c>
       <c r="C2">
-        <v>8.798475866</v>
+        <v>12.202884654</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H2">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-297.0669055353195</v>
+        <v>-117.61674239208116</v>
       </c>
       <c r="C3">
-        <v>0.127662835</v>
+        <v>3.598314523</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H3">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-312.4090439770373</v>
+        <v>-122.00142694489111</v>
       </c>
       <c r="C4">
-        <v>0.1138462</v>
+        <v>2.537106922</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -541,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H4">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-317.203342894221</v>
+        <v>-121.30725074603504</v>
       </c>
       <c r="C5">
-        <v>0.047802294</v>
+        <v>2.31044362</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H5">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-302.6749030743839</v>
+        <v>-120.12292887523121</v>
       </c>
       <c r="C6">
-        <v>0.112170199</v>
+        <v>2.489110608</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H6">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-303.1862543324665</v>
+        <v>-118.89272632913344</v>
       </c>
       <c r="C7">
-        <v>0.068165793</v>
+        <v>2.62654092</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H7">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-293.5572988833811</v>
+        <v>-115.03704412679392</v>
       </c>
       <c r="C8">
-        <v>0.094363997</v>
+        <v>3.114978464</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H8">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-302.6320763645107</v>
+        <v>-119.44147866773731</v>
       </c>
       <c r="C9">
-        <v>0.096415382</v>
+        <v>6.245791712</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H9">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-311.9147911076324</v>
+        <v>-120.14729806480636</v>
       </c>
       <c r="C10">
-        <v>0.14984193</v>
+        <v>2.503585175</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H10">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-293.13603103747107</v>
+        <v>-116.2650929524695</v>
       </c>
       <c r="C11">
-        <v>0.118199426</v>
+        <v>3.335147806</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -744,16 +744,16 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H11">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.03463062971899414</v>
+        <v>0.013879225737548828</v>
       </c>
       <c r="E2">
-        <v>6.27881</v>
+        <v>63.72233</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-311.9147911076324</v>
+        <v>-120.14729806480636</v>
       </c>
       <c r="C3">
-        <v>1.822402158581022e-14</v>
+        <v>0.058252734584761635</v>
       </c>
       <c r="D3">
-        <v>0.05053358450683594</v>
+        <v>2.351299575555542</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,10 +861,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.023612197089477538</v>
+        <v>0.028314946599609377</v>
       </c>
       <c r="E2">
-        <v>6.14951</v>
+        <v>60.67933</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-293.13603103747107</v>
+        <v>-116.2650929524695</v>
       </c>
       <c r="C3">
-        <v>3.878296274914252e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.05177989524938965</v>
+        <v>3.1394645194899904</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,10 +925,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.8012891853582763</v>
+        <v>0.8681030332108154</v>
       </c>
       <c r="E2">
-        <v>5.83198</v>
+        <v>59.94297</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-304.30358535466974</v>
+        <v>-123.47338599291058</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0828331597078457</v>
       </c>
       <c r="D3">
-        <v>0.049367887794555664</v>
+        <v>4.008848675241577</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,10 +989,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02658284252661133</v>
+        <v>0.01995838295275879</v>
       </c>
       <c r="E2">
-        <v>7.16118</v>
+        <v>62.46291</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-297.0669055353195</v>
+        <v>-117.61674239208116</v>
       </c>
       <c r="C3">
-        <v>3.826977546243739e-14</v>
+        <v>0.0036863920195789523</v>
       </c>
       <c r="D3">
-        <v>0.03535354046508789</v>
+        <v>3.3665186039008788</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.038552422625</v>
+        <v>0.015095799533081055</v>
       </c>
       <c r="E2">
-        <v>6.36705</v>
+        <v>58.8858</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-312.4090439770373</v>
+        <v>-122.00142694489111</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.02582804425646973</v>
+        <v>2.33366545952832</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.019896902933227538</v>
+        <v>0.012950693223876953</v>
       </c>
       <c r="E2">
-        <v>6.61863</v>
+        <v>62.63769</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-317.203342894221</v>
+        <v>-121.30725074603504</v>
       </c>
       <c r="C3">
-        <v>1.792018278941842e-14</v>
+        <v>0.021590336766628818</v>
       </c>
       <c r="D3">
-        <v>0.013011296592163086</v>
+        <v>2.1434515189086913</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.034053752669799806</v>
+        <v>0.015355426469726563</v>
       </c>
       <c r="E2">
-        <v>5.23162</v>
+        <v>64.67854</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-302.6749030743839</v>
+        <v>-120.12292887523121</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.03542183442858887</v>
+        <v>2.3161247102192384</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.020608754817382814</v>
+        <v>0.013324470045654296</v>
       </c>
       <c r="E2">
-        <v>6.64403</v>
+        <v>63.25529</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-303.1862543324665</v>
+        <v>-118.89272632913344</v>
       </c>
       <c r="C3">
-        <v>3.7497358833726145e-14</v>
+        <v>0.06777680627704202</v>
       </c>
       <c r="D3">
-        <v>0.021564385694458007</v>
+        <v>2.4524625399608153</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.008655049817382812</v>
+        <v>0.012669801960449218</v>
       </c>
       <c r="E2">
-        <v>6.47045</v>
+        <v>56.81308</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-293.5572988833811</v>
+        <v>-115.03704412679392</v>
       </c>
       <c r="C3">
-        <v>1.9363653731999465e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.033541322755859374</v>
+        <v>2.965054495814087</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,10 +1373,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0339187100949707</v>
+        <v>0.012745084410766602</v>
       </c>
       <c r="E2">
-        <v>5.34449</v>
+        <v>64.05169</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-302.6320763645107</v>
+        <v>-119.44147866773731</v>
       </c>
       <c r="C3">
-        <v>1.8783011881504308e-14</v>
+        <v>0.08191130397251818</v>
       </c>
       <c r="D3">
-        <v>0.015166178017089844</v>
+        <v>6.101889456531983</v>
       </c>
       <c r="E3">
         <v>0.0</v>
